--- a/download/demo.xlsx
+++ b/download/demo.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -929,9 +929,349 @@
         <v>0</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>626e4a4e522839719d4aabe2</v>
+      </c>
+      <c r="B32" t="str">
+        <v>than</v>
+      </c>
+      <c r="C32" t="str">
+        <v>than</v>
+      </c>
+      <c r="D32">
+        <v>100000</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>626e4f06522839719d4aabe7</v>
+      </c>
+      <c r="B33" t="str">
+        <v>than</v>
+      </c>
+      <c r="C33" t="str">
+        <v>than</v>
+      </c>
+      <c r="D33">
+        <v>100000</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>62773821b92fbc3cb22eaa9b</v>
+      </c>
+      <c r="B34" t="str">
+        <v>than</v>
+      </c>
+      <c r="C34" t="str">
+        <v>123</v>
+      </c>
+      <c r="D34">
+        <v>100000</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>62890766296a733378bb4c97</v>
+      </c>
+      <c r="B35" t="str">
+        <v>than</v>
+      </c>
+      <c r="C35" t="str">
+        <v>than</v>
+      </c>
+      <c r="D35">
+        <v>100000</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>62890772296a733378bb4c99</v>
+      </c>
+      <c r="B36" t="str">
+        <v>twsr</v>
+      </c>
+      <c r="C36" t="str">
+        <v>than</v>
+      </c>
+      <c r="D36">
+        <v>100000</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>6289082d296a733378bb4c9b</v>
+      </c>
+      <c r="B37" t="str">
+        <v>than</v>
+      </c>
+      <c r="C37" t="str">
+        <v>than</v>
+      </c>
+      <c r="D37">
+        <v>100000</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>62890c49f25d3c2db2d66846</v>
+      </c>
+      <c r="B38" t="str">
+        <v>than</v>
+      </c>
+      <c r="C38" t="str">
+        <v>than</v>
+      </c>
+      <c r="D38">
+        <v>100000</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>62890d45f25d3c2db2d6684a</v>
+      </c>
+      <c r="B39" t="str">
+        <v>ttt</v>
+      </c>
+      <c r="C39" t="str">
+        <v>ttt</v>
+      </c>
+      <c r="D39">
+        <v>100000</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>62890d4ff25d3c2db2d6684c</v>
+      </c>
+      <c r="B40" t="str">
+        <v>ttt</v>
+      </c>
+      <c r="C40" t="str">
+        <v>555</v>
+      </c>
+      <c r="D40">
+        <v>100000</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>62890da7f25d3c2db2d66850</v>
+      </c>
+      <c r="B41" t="str">
+        <v>ttt</v>
+      </c>
+      <c r="C41" t="str">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>100000</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>62890df389bc7ac181f44936</v>
+      </c>
+      <c r="B42" t="str">
+        <v>uuu</v>
+      </c>
+      <c r="C42" t="str">
+        <v>i</v>
+      </c>
+      <c r="D42">
+        <v>100000</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>62890e3289bc7ac181f4493a</v>
+      </c>
+      <c r="B43" t="str">
+        <v>uuu</v>
+      </c>
+      <c r="C43" t="str">
+        <v>5</v>
+      </c>
+      <c r="D43">
+        <v>100000</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>62890ea90a464da66dfc569c</v>
+      </c>
+      <c r="B44" t="str">
+        <v>5</v>
+      </c>
+      <c r="C44" t="str">
+        <v>5</v>
+      </c>
+      <c r="D44">
+        <v>100000</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>62890ebf0a464da66dfc569e</v>
+      </c>
+      <c r="B45" t="str">
+        <v>5</v>
+      </c>
+      <c r="C45" t="str">
+        <v>p</v>
+      </c>
+      <c r="D45">
+        <v>100000</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>62890ff4ef9ec53509e27fc8</v>
+      </c>
+      <c r="B46" t="str">
+        <v>5</v>
+      </c>
+      <c r="C46" t="str">
+        <v>z</v>
+      </c>
+      <c r="D46">
+        <v>100000</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>628910bb3eb7cd3f35384969</v>
+      </c>
+      <c r="B47" t="str">
+        <v>than</v>
+      </c>
+      <c r="C47" t="str">
+        <v>thaaaa</v>
+      </c>
+      <c r="D47">
+        <v>100000</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>628914840593e8513fe95503</v>
+      </c>
+      <c r="B48" t="str">
+        <v>than</v>
+      </c>
+      <c r="C48" t="str">
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>100000</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>62892791790a432b9cbf37df</v>
+      </c>
+      <c r="B49" t="str">
+        <v>o</v>
+      </c>
+      <c r="C49" t="str">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>100000</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>6289ade6b14aed62ea302776</v>
+      </c>
+      <c r="B50" t="str">
+        <v>s</v>
+      </c>
+      <c r="C50" t="str">
+        <v>p</v>
+      </c>
+      <c r="D50">
+        <v>100000</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>6289ae42b14aed62ea30277a</v>
+      </c>
+      <c r="B51" t="str">
+        <v>q</v>
+      </c>
+      <c r="C51" t="str">
+        <v>q</v>
+      </c>
+      <c r="D51">
+        <v>100000</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E51"/>
   </ignoredErrors>
 </worksheet>
 </file>